--- a/timesheets/Gamma Timesheet.xlsx
+++ b/timesheets/Gamma Timesheet.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,6 +444,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3678,8 +3684,9 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
